--- a/raw_data/mir-29_PRUEBA_PLANTILLA.xlsx
+++ b/raw_data/mir-29_PRUEBA_PLANTILLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiocastelarfernandez/Desktop/CancerGeneSignatures/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEDE44-E28B-E049-B5C3-D8BE8CFF0432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6D1699-CF7C-CC40-A4F6-5FDD67E3DED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -930,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -972,19 +972,18 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,16 +1199,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1005"/>
+  <dimension ref="A1:H1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
@@ -1217,7 +1216,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1226,15 +1225,15 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1265,11 +1264,11 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="7" t="s">
         <v>149</v>
       </c>
@@ -1289,11 +1288,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -1301,7 +1300,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1327,4484 +1326,2725 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="C9" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="18">
         <v>37.110191345214844</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>34.894931793212891</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>37.101310729980469</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="G9" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9">
         <v>34.89776611328125</v>
       </c>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>37.111038208007812</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>36.971408843994141</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>36.930339813232422</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>37.120704650878906</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>37.090953826904297</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10">
         <v>37.110710144042969</v>
       </c>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="C11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="19">
         <v>35.908561706542969</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="E11" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="19">
         <v>37.125926971435547</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="H11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="C12" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="19">
         <v>37.133918762207031</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>32.904716491699219</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>32.900104522705078</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>37.151313781738281</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12">
         <v>32.915493011474609</v>
       </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="C13" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="19">
         <v>37.038932800292969</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>37.168144226074219</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>37.164218902587891</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>37.010871887207031</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13">
         <v>34.886909484863281</v>
       </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>37.11639404296875</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="21">
+      <c r="D14" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="19">
         <v>35.938770294189453</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>34.914821624755859</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="19">
         <v>37.080432891845703</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>37.129112243652344</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>37.325473785400391</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>37.229545593261719</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="18">
         <v>37.166053771972656</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="18">
         <v>37.122112274169922</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="H15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>30.901422500610352</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>30.899543762207031</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>30.913349151611328</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
         <v>30.90070915222168</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <v>31.907558441162109</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16">
         <v>29.901056289672852</v>
       </c>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>37.146987915039062</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>37.123622894287109</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>37.057216644287109</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <v>37.113597869873047</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <v>37.140834808349609</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17">
         <v>37.128742218017578</v>
       </c>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>37.142627716064453</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="21">
+      <c r="D18" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="19">
         <v>33.913417816162109</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="19">
         <v>32.908191680908203</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="19">
         <v>33.918922424316406</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="H18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="21">
+      <c r="C19" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="19">
         <v>34.883792877197266</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="19">
         <v>37.090553283691406</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19">
         <v>37.096237182617188</v>
       </c>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="21">
+      <c r="C20" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="19">
         <v>33.891414642333984</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="19">
         <v>34.886070251464844</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="G20" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" s="21">
+      <c r="C21" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="19">
         <v>37.159439086914062</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" s="19">
+      <c r="G21" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21">
         <v>37.091995239257812</v>
       </c>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>37.086917877197266</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="21">
+      <c r="D22" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="19">
         <v>34.901912689208984</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <v>36.9617919921875</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="19">
+      <c r="G22" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22">
         <v>37.100616455078125</v>
       </c>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="21">
+      <c r="C23" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="19">
         <v>37.167999267578125</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <v>34.894824981689453</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="21">
+      <c r="F23" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="19">
         <v>37.295478820800781</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="H23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>36.922161102294922</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="19">
         <v>36.952404022216797</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>33.898590087890625</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <v>35.904212951660156</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="19">
         <v>36.942302703857422</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24">
         <v>35.899467468261719</v>
       </c>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>37.139270782470703</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <v>37.135795593261719</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>37.140541076660156</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <v>37.1402587890625</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="19">
         <v>37.153854370117188</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25">
         <v>37.253086090087891</v>
       </c>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>37.104259490966797</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <v>37.137851715087891</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>34.902488708496094</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <v>37.124076843261719</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="19">
         <v>37.154232025146484</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26">
         <v>34.918979644775391</v>
       </c>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>37.129776000976562</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <v>37.226024627685547</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>37.243610382080078</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <v>35.914535522460938</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" s="19">
+      <c r="G27" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27">
         <v>37.142097473144531</v>
       </c>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>37.053356170654297</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <v>37.1146240234375</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>35.916316986083984</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="19">
         <v>36.946125030517578</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28">
         <v>37.113517761230469</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28">
         <v>37.148635864257812</v>
       </c>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <v>37.332649230957031</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="D29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>37.118400573730469</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="19">
         <v>37.065753936767578</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>37.118709564208984</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="19">
         <v>37.077671051025391</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="19">
         <v>37.137279510498047</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30">
         <v>37.124038696289062</v>
       </c>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <v>37.06719970703125</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <v>35.888771057128906</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="18">
         <v>37.110172271728516</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>35.902809143066406</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="18">
         <v>37.192630767822266</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31">
         <v>37.064975738525391</v>
       </c>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="21">
+      <c r="C32" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="19">
         <v>37.123653411865234</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <v>33.898979187011719</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="19">
         <v>33.896011352539062</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="19">
         <v>37.165470123291016</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32">
         <v>35.894100189208984</v>
       </c>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>36.977142333984375</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <v>36.929836273193359</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>36.909763336181641</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="19">
         <v>36.956249237060547</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="19">
         <v>37.049121856689453</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33">
         <v>36.936801910400391</v>
       </c>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="21">
+      <c r="C34" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="19">
         <v>33.909317016601562</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="19">
         <v>37.127292633056641</v>
       </c>
-      <c r="G34" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H34" s="19">
+      <c r="G34" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34">
         <v>36.998538970947266</v>
       </c>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="21">
+      <c r="C35" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="19">
         <v>37.109394073486328</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
         <v>33.903671264648438</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G35" s="21">
+      <c r="F35" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="19">
         <v>36.949817657470703</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35">
         <v>37.121349334716797</v>
       </c>
-      <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>37.137367248535156</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="21">
+      <c r="D36" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="19">
         <v>37.107620239257812</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="19">
         <v>37.123939514160156</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="19">
         <v>37.115413665771484</v>
       </c>
-      <c r="H36" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I36" s="19"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="H36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <v>37.120258331298828</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37">
         <v>37.173969268798828</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37">
         <v>33.896102905273438</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37">
         <v>37.184783935546875</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="H37" s="19">
+      <c r="G37" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37">
         <v>37.03826904296875</v>
       </c>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="17">
         <v>36.933052062988281</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <v>37.085803985595703</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <v>32.899051666259766</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="19">
         <v>33.913787841796875</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="19">
         <v>37.115623474121094</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38">
         <v>37.100601196289062</v>
       </c>
-      <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="17">
         <v>37.048641204833984</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="19">
         <v>37.073215484619141</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="19">
         <v>33.892478942871094</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="19">
         <v>37.058837890625</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="19">
         <v>37.128429412841797</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39">
         <v>37.123607635498047</v>
       </c>
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <v>37.131916046142578</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="21">
+      <c r="D40" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="19">
         <v>33.897071838378906</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="21">
+      <c r="F40" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="19">
         <v>36.983608245849609</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40">
         <v>37.139694213867188</v>
       </c>
-      <c r="I40" s="19"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="21">
+      <c r="C41" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="19">
         <v>36.890914916992188</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41">
         <v>37.150188446044922</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="19">
         <v>36.962825775146484</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41">
         <v>36.995021820068359</v>
       </c>
-      <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="17">
         <v>35.903602600097656</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="19">
         <v>33.898136138916016</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
         <v>33.896347045898438</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="19">
         <v>33.885944366455078</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="19">
         <v>35.889972686767578</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42">
         <v>33.890544891357422</v>
       </c>
-      <c r="I42" s="19"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="21">
+      <c r="C43" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="19">
         <v>34.895706176757812</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="19">
         <v>34.89556884765625</v>
       </c>
-      <c r="G43" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
+      <c r="G43" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="17">
         <v>37.043998718261719</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="19">
         <v>37.148025512695312</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="19">
         <v>34.900100708007812</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="19">
         <v>36.966999053955078</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="19">
         <v>37.062602996826172</v>
       </c>
-      <c r="H44" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="H44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="17">
         <v>37.119037628173828</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="18">
         <v>36.922756195068359</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="18">
         <v>32.895339965820312</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="18">
         <v>36.948356628417969</v>
       </c>
-      <c r="G45" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H45" s="19">
+      <c r="G45" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45">
         <v>37.144542694091797</v>
       </c>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="21">
+      <c r="C46" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="19">
         <v>36.907321929931641</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
         <v>34.902690887451172</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="19">
         <v>36.990020751953125</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="19">
         <v>37.102973937988281</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46">
         <v>36.905189514160156</v>
       </c>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I47" s="19"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
+      <c r="C47" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="21">
+      <c r="C48" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="19">
         <v>36.943168640136719</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="19">
         <v>33.905422210693359</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H48" s="19">
+      <c r="F48" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48">
         <v>37.185157775878906</v>
       </c>
-      <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" s="21">
+      <c r="C49" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="19">
         <v>37.111892700195312</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="19">
         <v>37.083133697509766</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="19">
         <v>37.126232147216797</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="19">
         <v>37.132358551025391</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49">
         <v>36.912921905517578</v>
       </c>
-      <c r="I49" s="19"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <v>37.125232696533203</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="20">
+      <c r="D50" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="18">
         <v>37.120796203613281</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="18">
         <v>33.898097991943359</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="18">
         <v>36.886394500732422</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50">
         <v>37.134376525878906</v>
       </c>
-      <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <v>37.010059356689453</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="19">
         <v>36.982070922851562</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="19">
         <v>35.912891387939453</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="19">
         <v>36.945156097412109</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="19">
         <v>37.001029968261719</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51">
         <v>34.884407043457031</v>
       </c>
-      <c r="I51" s="19"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="17">
         <v>37.128467559814453</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52">
         <v>37.110153198242188</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="19">
         <v>33.888912200927734</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="19">
         <v>37.095493316650391</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="19">
         <v>37.120227813720703</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52">
         <v>37.104541778564453</v>
       </c>
-      <c r="I52" s="19"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="17">
         <v>37.100540161132812</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="19">
         <v>37.138660430908203</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="19">
         <v>36.925880432128906</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="19">
         <v>37.124244689941406</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="19">
         <v>37.141883850097656</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53">
         <v>37.139499664306641</v>
       </c>
-      <c r="I53" s="19"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" s="21">
+      <c r="C54" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="19">
         <v>37.147411346435547</v>
       </c>
-      <c r="F54" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="21">
+      <c r="F54" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="19">
         <v>37.144737243652344</v>
       </c>
-      <c r="H54" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
+      <c r="H54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D55" s="21">
+      <c r="C55" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="19">
         <v>37.096920013427734</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="19">
         <v>36.947296142578125</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="19">
         <v>37.081298828125</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="19">
         <v>37.084007263183594</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55">
         <v>37.129306793212891</v>
       </c>
-      <c r="I55" s="19"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" s="21">
+      <c r="C56" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="19">
         <v>33.898174285888672</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="19">
         <v>34.892055511474609</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H56" s="19">
+      <c r="G56" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56">
         <v>37.146530151367188</v>
       </c>
-      <c r="I56" s="19"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="s">
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" s="19">
+      <c r="C57" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57">
         <v>37.065441131591797</v>
       </c>
-      <c r="F57" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I57" s="19"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
+      <c r="F57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="17">
         <v>37.118186950683594</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="19">
         <v>37.127910614013672</v>
       </c>
-      <c r="E58" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F58" s="21">
+      <c r="E58" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" s="19">
         <v>37.104366302490234</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G58" s="19">
         <v>37.089122772216797</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H58">
         <v>37.059925079345703</v>
       </c>
-      <c r="I58" s="19"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="17">
         <v>37.100650787353516</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="19">
         <v>37.062705993652344</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="19">
         <v>32.890872955322266</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="19">
         <v>37.057132720947266</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G59" s="19">
         <v>37.0162353515625</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H59">
         <v>33.883903503417969</v>
       </c>
-      <c r="I59" s="19"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <v>36.901760101318359</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="19">
         <v>37.116226196289062</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="19">
         <v>37.087520599365234</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="19">
         <v>37.057395935058594</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G60" s="19">
         <v>37.101139068603516</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H60">
         <v>37.105949401855469</v>
       </c>
-      <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="17">
         <v>37.146808624267578</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="21">
+      <c r="D61" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="19">
         <v>37.136650085449219</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="19">
         <v>37.133800506591797</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="19">
         <v>35.896427154541016</v>
       </c>
-      <c r="H61" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I61" s="19"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
+      <c r="H61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="17">
         <v>37.049076080322266</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62">
         <v>37.129947662353516</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="19">
         <v>37.117794036865234</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="19">
         <v>37.017471313476562</v>
       </c>
-      <c r="G62" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H62" s="19">
+      <c r="G62" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62">
         <v>37.046516418457031</v>
       </c>
-      <c r="I62" s="19"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="17">
         <v>37.070636749267578</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="19">
         <v>36.890041351318359</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="19">
         <v>34.937374114990234</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="19">
         <v>37.215259552001953</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="19">
         <v>36.905178070068359</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H63">
         <v>37.009113311767578</v>
       </c>
-      <c r="I63" s="19"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="17">
         <v>37.107158660888672</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="19">
         <v>37.143344879150391</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="19">
         <v>34.927814483642578</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="19">
         <v>37.152359008789062</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G64" s="19">
         <v>37.189517974853516</v>
       </c>
-      <c r="H64" s="19">
+      <c r="H64">
         <v>37.127891540527344</v>
       </c>
-      <c r="I64" s="19"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="17">
         <v>37.070167541503906</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="19">
         <v>37.105400085449219</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="19">
         <v>36.957286834716797</v>
       </c>
-      <c r="F65" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G65" s="21">
+      <c r="F65" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="19">
         <v>37.116191864013672</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H65">
         <v>37.119228363037109</v>
       </c>
-      <c r="I65" s="19"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="17">
         <v>37.142513275146484</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="19">
         <v>37.0528564453125</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="19">
         <v>33.884716033935547</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="19">
         <v>37.107189178466797</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G66" s="19">
         <v>37.143047332763672</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H66">
         <v>37.006202697753906</v>
       </c>
-      <c r="I66" s="19"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="17">
         <v>36.911014556884766</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="19">
         <v>37.017257690429688</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="19">
         <v>36.912212371826172</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="19">
         <v>37.119857788085938</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G67" s="19">
         <v>37.10052490234375</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H67">
         <v>37.141029357910156</v>
       </c>
-      <c r="I67" s="19"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="17">
         <v>37.112953186035156</v>
       </c>
-      <c r="D68" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E68" s="21">
+      <c r="D68" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="19">
         <v>34.884441375732422</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="19">
         <v>37.131423950195312</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G68" s="19">
         <v>37.105850219726562</v>
       </c>
-      <c r="H68" s="19">
+      <c r="H68">
         <v>37.180072784423828</v>
       </c>
-      <c r="I68" s="19"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69" s="21">
+      <c r="C69" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" s="19">
         <v>34.902114868164062</v>
       </c>
-      <c r="F69" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G69" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H69" s="19">
+      <c r="F69" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H69">
         <v>37.142013549804688</v>
       </c>
-      <c r="I69" s="19"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="17">
         <v>37.106983184814453</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="19">
         <v>37.080959320068359</v>
       </c>
-      <c r="E70" s="21">
+      <c r="E70" s="19">
         <v>35.894107818603516</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="19">
         <v>37.155612945556641</v>
       </c>
-      <c r="G70" s="21">
+      <c r="G70" s="19">
         <v>37.145755767822266</v>
       </c>
-      <c r="H70" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I70" s="19"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="s">
+      <c r="H70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="17">
         <v>37.127887725830078</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="19">
         <v>37.149551391601562</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E71" s="19">
         <v>36.907749176025391</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F71" s="19">
         <v>37.100795745849609</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G71" s="19">
         <v>36.868782043457031</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H71">
         <v>37.151569366455078</v>
       </c>
-      <c r="I71" s="19"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="17">
         <v>37.207878112792969</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72">
         <v>37.145442962646484</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="19">
         <v>36.918560028076172</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F72">
         <v>37.155742645263672</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G72">
         <v>37.142475128173828</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H72">
         <v>36.943397521972656</v>
       </c>
-      <c r="I72" s="19"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="s">
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="17">
         <v>37.086048126220703</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="19">
         <v>37.126190185546875</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="19">
         <v>33.911182403564453</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="19">
         <v>36.934051513671875</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="19">
         <v>35.914737701416016</v>
       </c>
-      <c r="H73" s="19">
+      <c r="H73">
         <v>37.120777130126953</v>
       </c>
-      <c r="I73" s="19"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="s">
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="17">
         <v>37.143543243408203</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="19">
         <v>37.093112945556641</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="19">
         <v>37.065261840820312</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="19">
         <v>36.921005249023438</v>
       </c>
-      <c r="G74" s="21">
+      <c r="G74" s="19">
         <v>37.155662536621094</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H74">
         <v>37.147243499755859</v>
       </c>
-      <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="s">
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="17">
         <v>37.099185943603516</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="19">
         <v>37.107292175292969</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E75" s="19">
         <v>37.138175964355469</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="19">
         <v>37.156543731689453</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G75" s="19">
         <v>37.127113342285156</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H75">
         <v>37.109375</v>
       </c>
-      <c r="I75" s="19"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="s">
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="17">
         <v>37.093647003173828</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="19">
         <v>37.141139984130859</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="19">
         <v>34.91156005859375</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="19">
         <v>36.901771545410156</v>
       </c>
-      <c r="G76" s="21">
+      <c r="G76" s="19">
         <v>37.210113525390625</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H76">
         <v>33.899280548095703</v>
       </c>
-      <c r="I76" s="19"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="s">
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="17">
         <v>37.003944396972656</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D77" s="19">
         <v>37.124813079833984</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E77" s="19">
         <v>37.116237640380859</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="19">
         <v>37.116588592529297</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G77" s="19">
         <v>37.073143005371094</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H77">
         <v>37.116813659667969</v>
       </c>
-      <c r="I77" s="19"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="s">
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="17">
         <v>37.140830993652344</v>
       </c>
-      <c r="D78" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G78" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H78" s="19">
+      <c r="D78" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H78">
         <v>37.138534545898438</v>
       </c>
-      <c r="I78" s="19"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C79" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D79" s="21">
+      <c r="C79" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" s="19">
         <v>37.115707397460938</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E79" s="19">
         <v>37.018260955810547</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F79" s="19">
         <v>37.171855926513672</v>
       </c>
-      <c r="G79" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H79" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I79" s="19"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="s">
+      <c r="G79" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C80" s="17">
         <v>37.125015258789062</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="19">
         <v>37.146156311035156</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E80" s="19">
         <v>37.003852844238281</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="19">
         <v>37.1494140625</v>
       </c>
-      <c r="G80" s="21">
+      <c r="G80" s="19">
         <v>37.132984161376953</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80">
         <v>32.894573211669922</v>
       </c>
-      <c r="I80" s="19"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="23" t="s">
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D81" s="21">
+      <c r="C81" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="19">
         <v>36.890316009521484</v>
       </c>
-      <c r="E81" s="21">
+      <c r="E81" s="19">
         <v>33.902675628662109</v>
       </c>
-      <c r="F81" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H81" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I81" s="19"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="s">
+      <c r="F81" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C82" s="17">
         <v>36.982681274414062</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="19">
         <v>37.122261047363281</v>
       </c>
-      <c r="E82" s="21">
+      <c r="E82" s="19">
         <v>37.159595489501953</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="19">
         <v>33.907527923583984</v>
       </c>
-      <c r="G82" s="21">
+      <c r="G82" s="19">
         <v>36.928356170654297</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H82">
         <v>37.143112182617188</v>
       </c>
-      <c r="I82" s="19"/>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="s">
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="17">
         <v>37.115516662597656</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="19">
         <v>36.892478942871094</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="19">
         <v>36.96307373046875</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F83" s="19">
         <v>37.127891540527344</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G83" s="19">
         <v>37.136344909667969</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H83">
         <v>35.893840789794922</v>
       </c>
-      <c r="I83" s="19"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="s">
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="C84" s="18">
+      <c r="C84" s="17">
         <v>36.986713409423828</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D84" s="19">
         <v>35.909793853759766</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="19">
         <v>36.922805786132812</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="19">
         <v>37.032985687255859</v>
       </c>
-      <c r="G84" s="21">
+      <c r="G84" s="19">
         <v>35.936115264892578</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H84">
         <v>35.901077270507812</v>
       </c>
-      <c r="I84" s="19"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="s">
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="17">
         <v>37.084648132324219</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85">
         <v>37.036106109619141</v>
       </c>
-      <c r="E85" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F85" s="19">
+      <c r="E85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F85">
         <v>37.169193267822266</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G85">
         <v>37.153564453125</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H85">
         <v>37.132053375244141</v>
       </c>
-      <c r="I85" s="19"/>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="23" t="s">
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C86" s="18">
+      <c r="C86" s="17">
         <v>37.088348388671875</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="19">
         <v>37.021026611328125</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="19">
         <v>36.903171539306641</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="19">
         <v>37.018856048583984</v>
       </c>
-      <c r="G86" s="21">
+      <c r="G86" s="19">
         <v>36.997646331787109</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H86">
         <v>33.890155792236328</v>
       </c>
-      <c r="I86" s="19"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="s">
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="17">
         <v>37.045539855957031</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="19">
         <v>36.911052703857422</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="19">
         <v>36.913841247558594</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="19">
         <v>36.900196075439453</v>
       </c>
-      <c r="G87" s="21">
+      <c r="G87" s="19">
         <v>35.908084869384766</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H87">
         <v>36.903335571289062</v>
       </c>
-      <c r="I87" s="19"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="s">
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D88" s="21">
+      <c r="C88" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D88" s="19">
         <v>34.896839141845703</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E88" s="19">
         <v>34.877403259277344</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="19">
         <v>37.128253936767578</v>
       </c>
-      <c r="G88" s="21">
+      <c r="G88" s="19">
         <v>36.958713531494141</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H88">
         <v>36.952590942382812</v>
       </c>
-      <c r="I88" s="19"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="s">
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="17">
         <v>37.126266479492188</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="19">
         <v>37.121212005615234</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E89" s="19">
         <v>37.120677947998047</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="19">
         <v>37.110832214355469</v>
       </c>
-      <c r="G89" s="21">
+      <c r="G89" s="19">
         <v>37.107574462890625</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H89">
         <v>37.135761260986328</v>
       </c>
-      <c r="I89" s="19"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="s">
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C90" s="17">
         <v>37.157623291015625</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="19">
         <v>37.025981903076172</v>
       </c>
-      <c r="E90" s="21">
+      <c r="E90" s="19">
         <v>37.087276458740234</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="19">
         <v>35.896762847900391</v>
       </c>
-      <c r="G90" s="21">
+      <c r="G90" s="19">
         <v>37.126350402832031</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H90">
         <v>37.036838531494141</v>
       </c>
-      <c r="I90" s="19"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="23" t="s">
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="17">
         <v>36.900249481201172</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D91" s="19">
         <v>37.166328430175781</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="19">
         <v>37.188728332519531</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="19">
         <v>36.956470489501953</v>
       </c>
-      <c r="G91" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H91" s="19">
+      <c r="G91" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H91">
         <v>37.121189117431641</v>
       </c>
-      <c r="I91" s="19"/>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="23" t="s">
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C92" s="17">
         <v>37.129058837890625</v>
       </c>
-      <c r="D92" s="21">
+      <c r="D92" s="19">
         <v>37.146697998046875</v>
       </c>
-      <c r="E92" s="21">
+      <c r="E92" s="19">
         <v>37.107891082763672</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="19">
         <v>37.074916839599609</v>
       </c>
-      <c r="G92" s="21">
+      <c r="G92" s="19">
         <v>37.101268768310547</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H92">
         <v>37.124080657958984</v>
       </c>
-      <c r="I92" s="19"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="23" t="s">
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="17">
         <v>37.122734069824219</v>
       </c>
-      <c r="D93" s="21">
+      <c r="D93" s="19">
         <v>36.955970764160156</v>
       </c>
-      <c r="E93" s="21">
+      <c r="E93" s="19">
         <v>37.101757049560547</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="19">
         <v>37.140937805175781</v>
       </c>
-      <c r="G93" s="21">
+      <c r="G93" s="19">
         <v>37.064804077148438</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H93">
         <v>34.956218719482422</v>
       </c>
-      <c r="I93" s="19"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="s">
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="17">
         <v>37.131099700927734</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94">
         <v>34.918003082275391</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94">
         <v>33.906974792480469</v>
       </c>
-      <c r="F94" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G94" s="19">
+      <c r="F94" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94">
         <v>37.048904418945312</v>
       </c>
-      <c r="H94" s="19">
+      <c r="H94">
         <v>28.911972045898438</v>
       </c>
-      <c r="I94" s="19"/>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="s">
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C95" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D95" s="21">
+      <c r="C95" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" s="19">
         <v>37.110141754150391</v>
       </c>
-      <c r="E95" s="21">
+      <c r="E95" s="19">
         <v>34.916164398193359</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="19">
         <v>37.007850646972656</v>
       </c>
-      <c r="G95" s="21">
+      <c r="G95" s="19">
         <v>37.067268371582031</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H95">
         <v>37.119655609130859</v>
       </c>
-      <c r="I95" s="19"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="s">
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="17">
         <v>36.993457794189453</v>
       </c>
-      <c r="D96" s="21">
+      <c r="D96" s="19">
         <v>37.143074035644531</v>
       </c>
-      <c r="E96" s="21">
+      <c r="E96" s="19">
         <v>32.904266357421875</v>
       </c>
-      <c r="F96" s="21">
+      <c r="F96" s="19">
         <v>36.985843658447266</v>
       </c>
-      <c r="G96" s="21">
+      <c r="G96" s="19">
         <v>37.037185668945312</v>
       </c>
-      <c r="H96" s="19">
+      <c r="H96">
         <v>37.073997497558594</v>
       </c>
-      <c r="I96" s="19"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="18">
+      <c r="C97" s="17">
         <v>37.095859527587891</v>
       </c>
-      <c r="D97" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F97" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G97" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H97" s="19">
+      <c r="D97" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F97" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H97">
         <v>36.954738616943359</v>
       </c>
-      <c r="I97" s="19"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="s">
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C98" s="17">
         <v>37.235542297363281</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="19">
         <v>37.123756408691406</v>
       </c>
-      <c r="E98" s="21">
+      <c r="E98" s="19">
         <v>32.903244018554688</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F98" s="19">
         <v>36.898036956787109</v>
       </c>
-      <c r="G98" s="21">
+      <c r="G98" s="19">
         <v>34.895786285400391</v>
       </c>
-      <c r="H98" s="19">
+      <c r="H98">
         <v>37.222187042236328</v>
       </c>
-      <c r="I98" s="19"/>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="s">
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C99" s="17">
         <v>29.672576904296875</v>
       </c>
-      <c r="D99" s="21">
+      <c r="D99" s="19">
         <v>28.909748077392578</v>
       </c>
-      <c r="E99" s="21">
+      <c r="E99" s="19">
         <v>28.765010833740234</v>
       </c>
-      <c r="F99" s="21">
+      <c r="F99" s="19">
         <v>28.74365234375</v>
       </c>
-      <c r="G99" s="21">
+      <c r="G99" s="19">
         <v>29.784507751464844</v>
       </c>
-      <c r="H99" s="19">
+      <c r="H99">
         <v>27.912836074829102</v>
       </c>
-      <c r="I99" s="19"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="23" t="s">
+    </row>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C100" s="17">
         <v>29.884466171264648</v>
       </c>
-      <c r="D100" s="21">
+      <c r="D100" s="19">
         <v>28.896560668945312</v>
       </c>
-      <c r="E100" s="21">
+      <c r="E100" s="19">
         <v>28.808320999145508</v>
       </c>
-      <c r="F100" s="21">
+      <c r="F100" s="19">
         <v>28.907634735107422</v>
       </c>
-      <c r="G100" s="21">
+      <c r="G100" s="19">
         <v>29.847482681274414</v>
       </c>
-      <c r="H100" s="19">
+      <c r="H100">
         <v>27.985557556152344</v>
       </c>
-      <c r="I100" s="19"/>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="s">
+    </row>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C101" s="18">
+      <c r="C101" s="17">
         <v>29.863710403442383</v>
       </c>
-      <c r="D101" s="21">
+      <c r="D101" s="19">
         <v>28.846267700195312</v>
       </c>
-      <c r="E101" s="21">
+      <c r="E101" s="19">
         <v>28.875820159912109</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F101" s="19">
         <v>28.962116241455078</v>
       </c>
-      <c r="G101" s="21">
+      <c r="G101" s="19">
         <v>29.876729965209961</v>
       </c>
-      <c r="H101" s="19">
+      <c r="H101">
         <v>27.89869499206543</v>
       </c>
-      <c r="I101" s="19"/>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="s">
+    </row>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C102" s="18">
+      <c r="C102" s="17">
         <v>21.908203125</v>
       </c>
-      <c r="D102" s="21">
+      <c r="D102" s="19">
         <v>22.263370513916016</v>
       </c>
-      <c r="E102" s="21">
+      <c r="E102" s="19">
         <v>22.346660614013672</v>
       </c>
-      <c r="F102" s="21">
+      <c r="F102" s="19">
         <v>21.861307144165039</v>
       </c>
-      <c r="G102" s="21">
+      <c r="G102" s="19">
         <v>21.906360626220703</v>
       </c>
-      <c r="H102" s="19">
+      <c r="H102">
         <v>21.901128768920898</v>
       </c>
-      <c r="I102" s="19"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="23" t="s">
+    </row>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C103" s="18">
+      <c r="C103" s="17">
         <v>21.807516098022461</v>
       </c>
-      <c r="D103" s="21">
+      <c r="D103" s="19">
         <v>22.155370712280273</v>
       </c>
-      <c r="E103" s="21">
+      <c r="E103" s="19">
         <v>22.208160400390625</v>
       </c>
-      <c r="F103" s="21">
+      <c r="F103" s="19">
         <v>21.903484344482422</v>
       </c>
-      <c r="G103" s="21">
+      <c r="G103" s="19">
         <v>21.692094802856445</v>
       </c>
-      <c r="H103" s="19">
+      <c r="H103">
         <v>21.93665885925293</v>
       </c>
-      <c r="I103" s="19"/>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="s">
+    </row>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="18">
+      <c r="C104" s="17">
         <v>21.683160781860352</v>
       </c>
-      <c r="D104" s="21">
+      <c r="D104" s="19">
         <v>21.904592514038086</v>
       </c>
-      <c r="E104" s="21">
+      <c r="E104" s="19">
         <v>21.900350570678711</v>
       </c>
-      <c r="F104" s="21">
+      <c r="F104" s="19">
         <v>21.754301071166992</v>
       </c>
-      <c r="G104" s="21">
+      <c r="G104" s="19">
         <v>21.543418884277344</v>
       </c>
-      <c r="H104" s="19">
+      <c r="H104">
         <v>21.714715957641602</v>
       </c>
-      <c r="I104" s="19"/>
-    </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="s">
+    </row>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-    </row>
-    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-    </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-    </row>
-    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-    </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-    </row>
-    <row r="113" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-    </row>
-    <row r="114" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-    </row>
-    <row r="115" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-    </row>
-    <row r="116" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-    </row>
-    <row r="117" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-    </row>
-    <row r="118" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-    </row>
-    <row r="119" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-    </row>
-    <row r="120" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-    </row>
-    <row r="121" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-    </row>
-    <row r="122" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-    </row>
-    <row r="123" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-    </row>
-    <row r="124" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-    </row>
-    <row r="125" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-    </row>
-    <row r="126" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-    </row>
-    <row r="127" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-    </row>
-    <row r="128" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-    </row>
-    <row r="129" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-    </row>
-    <row r="130" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-    </row>
-    <row r="131" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-    </row>
-    <row r="132" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-    </row>
-    <row r="133" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-    </row>
-    <row r="134" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-    </row>
-    <row r="135" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-    </row>
-    <row r="136" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-    </row>
-    <row r="137" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-    </row>
-    <row r="138" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-    </row>
-    <row r="139" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-    </row>
-    <row r="140" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-    </row>
-    <row r="141" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-    </row>
-    <row r="142" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-    </row>
-    <row r="143" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-    </row>
-    <row r="144" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-    </row>
-    <row r="145" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-    </row>
-    <row r="146" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-    </row>
-    <row r="147" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-    </row>
-    <row r="148" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-    </row>
-    <row r="149" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-    </row>
-    <row r="150" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-    </row>
-    <row r="151" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-    </row>
-    <row r="152" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-    </row>
-    <row r="153" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-    </row>
-    <row r="154" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-    </row>
-    <row r="155" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-    </row>
-    <row r="156" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-    </row>
-    <row r="157" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-    </row>
-    <row r="158" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-    </row>
-    <row r="159" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-    </row>
-    <row r="160" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-    </row>
-    <row r="161" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-    </row>
-    <row r="162" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-    </row>
-    <row r="163" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-    </row>
-    <row r="164" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-    </row>
-    <row r="165" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-    </row>
-    <row r="166" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-    </row>
-    <row r="167" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-    </row>
-    <row r="168" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-    </row>
-    <row r="169" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-    </row>
-    <row r="170" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C170" s="19"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-    </row>
-    <row r="171" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-    </row>
-    <row r="172" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-    </row>
-    <row r="173" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-    </row>
-    <row r="174" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-    </row>
-    <row r="175" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-    </row>
-    <row r="176" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-    </row>
-    <row r="177" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-    </row>
-    <row r="178" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-    </row>
-    <row r="179" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-    </row>
-    <row r="180" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-    </row>
-    <row r="181" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-    </row>
-    <row r="182" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-    </row>
-    <row r="183" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C183" s="19"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-    </row>
-    <row r="184" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-    </row>
-    <row r="185" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C185" s="19"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-    </row>
-    <row r="186" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C186" s="19"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="19"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-    </row>
-    <row r="187" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C187" s="19"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-    </row>
-    <row r="188" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C188" s="19"/>
-      <c r="D188" s="19"/>
-      <c r="E188" s="19"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-    </row>
-    <row r="189" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="19"/>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-    </row>
-    <row r="190" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C190" s="19"/>
-      <c r="D190" s="19"/>
-      <c r="E190" s="19"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-    </row>
-    <row r="191" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-    </row>
-    <row r="192" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-    </row>
-    <row r="193" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-    </row>
-    <row r="194" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-    </row>
-    <row r="195" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C195" s="19"/>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-    </row>
-    <row r="196" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C196" s="19"/>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-    </row>
-    <row r="197" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C197" s="19"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="19"/>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-    </row>
-    <row r="198" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
-      <c r="F198" s="19"/>
-      <c r="G198" s="19"/>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-    </row>
-    <row r="199" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C199" s="19"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-    </row>
-    <row r="200" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C200" s="19"/>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-    </row>
-    <row r="201" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="19"/>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-    </row>
-    <row r="202" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C202" s="19"/>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19"/>
-      <c r="F202" s="19"/>
-      <c r="G202" s="19"/>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-    </row>
-    <row r="203" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="19"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-    </row>
-    <row r="204" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C204" s="19"/>
-      <c r="D204" s="19"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="19"/>
-      <c r="G204" s="19"/>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-    </row>
-    <row r="205" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C205" s="19"/>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19"/>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-    </row>
-    <row r="206" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C206" s="19"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="19"/>
-      <c r="G206" s="19"/>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-    </row>
-    <row r="207" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C207" s="19"/>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="19"/>
-      <c r="G207" s="19"/>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-    </row>
-    <row r="208" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C208" s="19"/>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19"/>
-      <c r="F208" s="19"/>
-      <c r="G208" s="19"/>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-    </row>
-    <row r="209" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
-      <c r="F209" s="19"/>
-      <c r="G209" s="19"/>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-    </row>
-    <row r="210" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C210" s="19"/>
-      <c r="D210" s="19"/>
-      <c r="E210" s="19"/>
-      <c r="F210" s="19"/>
-      <c r="G210" s="19"/>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-    </row>
-    <row r="211" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C211" s="19"/>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="19"/>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-    </row>
-    <row r="212" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
-      <c r="E212" s="19"/>
-      <c r="F212" s="19"/>
-      <c r="G212" s="19"/>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-    </row>
-    <row r="213" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C213" s="19"/>
-      <c r="D213" s="19"/>
-      <c r="E213" s="19"/>
-      <c r="F213" s="19"/>
-      <c r="G213" s="19"/>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-    </row>
-    <row r="214" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C214" s="19"/>
-      <c r="D214" s="19"/>
-      <c r="E214" s="19"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="19"/>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-    </row>
-    <row r="215" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C215" s="19"/>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
-      <c r="F215" s="19"/>
-      <c r="G215" s="19"/>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-    </row>
-    <row r="216" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C216" s="19"/>
-      <c r="D216" s="19"/>
-      <c r="E216" s="19"/>
-      <c r="F216" s="19"/>
-      <c r="G216" s="19"/>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-    </row>
-    <row r="217" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C217" s="19"/>
-      <c r="D217" s="19"/>
-      <c r="E217" s="19"/>
-      <c r="F217" s="19"/>
-      <c r="G217" s="19"/>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-    </row>
-    <row r="218" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C218" s="19"/>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="19"/>
-      <c r="G218" s="19"/>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-    </row>
-    <row r="219" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="19"/>
-      <c r="G219" s="19"/>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-    </row>
-    <row r="220" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19"/>
-      <c r="F220" s="19"/>
-      <c r="G220" s="19"/>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-    </row>
-    <row r="221" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C221" s="19"/>
-      <c r="D221" s="19"/>
-      <c r="E221" s="19"/>
-      <c r="F221" s="19"/>
-      <c r="G221" s="19"/>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-    </row>
-    <row r="222" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C222" s="19"/>
-      <c r="D222" s="19"/>
-      <c r="E222" s="19"/>
-      <c r="F222" s="19"/>
-      <c r="G222" s="19"/>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-    </row>
-    <row r="223" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C223" s="19"/>
-      <c r="D223" s="19"/>
-      <c r="E223" s="19"/>
-      <c r="F223" s="19"/>
-      <c r="G223" s="19"/>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-    </row>
-    <row r="224" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C224" s="19"/>
-      <c r="D224" s="19"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="19"/>
-      <c r="G224" s="19"/>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-    </row>
-    <row r="225" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C225" s="19"/>
-      <c r="D225" s="19"/>
-      <c r="E225" s="19"/>
-      <c r="F225" s="19"/>
-      <c r="G225" s="19"/>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-    </row>
-    <row r="226" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C226" s="19"/>
-      <c r="D226" s="19"/>
-      <c r="E226" s="19"/>
-      <c r="F226" s="19"/>
-      <c r="G226" s="19"/>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-    </row>
-    <row r="227" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C227" s="19"/>
-      <c r="D227" s="19"/>
-      <c r="E227" s="19"/>
-      <c r="F227" s="19"/>
-      <c r="G227" s="19"/>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-    </row>
-    <row r="228" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C228" s="19"/>
-      <c r="D228" s="19"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="19"/>
-      <c r="G228" s="19"/>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-    </row>
-    <row r="229" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
-      <c r="E229" s="19"/>
-      <c r="F229" s="19"/>
-      <c r="G229" s="19"/>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-    </row>
-    <row r="230" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C230" s="19"/>
-      <c r="D230" s="19"/>
-      <c r="E230" s="19"/>
-      <c r="F230" s="19"/>
-      <c r="G230" s="19"/>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-    </row>
-    <row r="231" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C231" s="19"/>
-      <c r="D231" s="19"/>
-      <c r="E231" s="19"/>
-      <c r="F231" s="19"/>
-      <c r="G231" s="19"/>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-    </row>
-    <row r="232" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="19"/>
-      <c r="G232" s="19"/>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-    </row>
-    <row r="233" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C233" s="19"/>
-      <c r="D233" s="19"/>
-      <c r="E233" s="19"/>
-      <c r="F233" s="19"/>
-      <c r="G233" s="19"/>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-    </row>
-    <row r="234" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C234" s="19"/>
-      <c r="D234" s="19"/>
-      <c r="E234" s="19"/>
-      <c r="F234" s="19"/>
-      <c r="G234" s="19"/>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-    </row>
-    <row r="235" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C235" s="19"/>
-      <c r="D235" s="19"/>
-      <c r="E235" s="19"/>
-      <c r="F235" s="19"/>
-      <c r="G235" s="19"/>
-      <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
-    </row>
-    <row r="236" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C236" s="19"/>
-      <c r="D236" s="19"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="19"/>
-      <c r="G236" s="19"/>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-    </row>
-    <row r="237" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C237" s="19"/>
-      <c r="D237" s="19"/>
-      <c r="E237" s="19"/>
-      <c r="F237" s="19"/>
-      <c r="G237" s="19"/>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-    </row>
-    <row r="238" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C238" s="19"/>
-      <c r="D238" s="19"/>
-      <c r="E238" s="19"/>
-      <c r="F238" s="19"/>
-      <c r="G238" s="19"/>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-    </row>
-    <row r="239" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C239" s="19"/>
-      <c r="D239" s="19"/>
-      <c r="E239" s="19"/>
-      <c r="F239" s="19"/>
-      <c r="G239" s="19"/>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-    </row>
-    <row r="240" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C240" s="19"/>
-      <c r="D240" s="19"/>
-      <c r="E240" s="19"/>
-      <c r="F240" s="19"/>
-      <c r="G240" s="19"/>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-    </row>
-    <row r="241" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C241" s="19"/>
-      <c r="D241" s="19"/>
-      <c r="E241" s="19"/>
-      <c r="F241" s="19"/>
-      <c r="G241" s="19"/>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-    </row>
-    <row r="242" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C242" s="19"/>
-      <c r="D242" s="19"/>
-      <c r="E242" s="19"/>
-      <c r="F242" s="19"/>
-      <c r="G242" s="19"/>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-    </row>
-    <row r="243" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C243" s="19"/>
-      <c r="D243" s="19"/>
-      <c r="E243" s="19"/>
-      <c r="F243" s="19"/>
-      <c r="G243" s="19"/>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-    </row>
-    <row r="244" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C244" s="19"/>
-      <c r="D244" s="19"/>
-      <c r="E244" s="19"/>
-      <c r="F244" s="19"/>
-      <c r="G244" s="19"/>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-    </row>
-    <row r="245" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C245" s="19"/>
-      <c r="D245" s="19"/>
-      <c r="E245" s="19"/>
-      <c r="F245" s="19"/>
-      <c r="G245" s="19"/>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-    </row>
-    <row r="246" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C246" s="19"/>
-      <c r="D246" s="19"/>
-      <c r="E246" s="19"/>
-      <c r="F246" s="19"/>
-      <c r="G246" s="19"/>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-    </row>
-    <row r="247" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C247" s="19"/>
-      <c r="D247" s="19"/>
-      <c r="E247" s="19"/>
-      <c r="F247" s="19"/>
-      <c r="G247" s="19"/>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-    </row>
-    <row r="248" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C248" s="19"/>
-      <c r="D248" s="19"/>
-      <c r="E248" s="19"/>
-      <c r="F248" s="19"/>
-      <c r="G248" s="19"/>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-    </row>
-    <row r="249" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C249" s="19"/>
-      <c r="D249" s="19"/>
-      <c r="E249" s="19"/>
-      <c r="F249" s="19"/>
-      <c r="G249" s="19"/>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-    </row>
-    <row r="250" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C250" s="19"/>
-      <c r="D250" s="19"/>
-      <c r="E250" s="19"/>
-      <c r="F250" s="19"/>
-      <c r="G250" s="19"/>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-    </row>
-    <row r="251" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C251" s="19"/>
-      <c r="D251" s="19"/>
-      <c r="E251" s="19"/>
-      <c r="F251" s="19"/>
-      <c r="G251" s="19"/>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-    </row>
-    <row r="252" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C252" s="19"/>
-      <c r="D252" s="19"/>
-      <c r="E252" s="19"/>
-      <c r="F252" s="19"/>
-      <c r="G252" s="19"/>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-    </row>
-    <row r="253" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C253" s="19"/>
-      <c r="D253" s="19"/>
-      <c r="E253" s="19"/>
-      <c r="F253" s="19"/>
-      <c r="G253" s="19"/>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-    </row>
-    <row r="254" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C254" s="19"/>
-      <c r="D254" s="19"/>
-      <c r="E254" s="19"/>
-      <c r="F254" s="19"/>
-      <c r="G254" s="19"/>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-    </row>
-    <row r="255" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C255" s="19"/>
-      <c r="D255" s="19"/>
-      <c r="E255" s="19"/>
-      <c r="F255" s="19"/>
-      <c r="G255" s="19"/>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-    </row>
-    <row r="256" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C256" s="19"/>
-      <c r="D256" s="19"/>
-      <c r="E256" s="19"/>
-      <c r="F256" s="19"/>
-      <c r="G256" s="19"/>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-    </row>
-    <row r="257" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C257" s="19"/>
-      <c r="D257" s="19"/>
-      <c r="E257" s="19"/>
-      <c r="F257" s="19"/>
-      <c r="G257" s="19"/>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-    </row>
-    <row r="258" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C258" s="19"/>
-      <c r="D258" s="19"/>
-      <c r="E258" s="19"/>
-      <c r="F258" s="19"/>
-      <c r="G258" s="19"/>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-    </row>
-    <row r="259" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C259" s="19"/>
-      <c r="D259" s="19"/>
-      <c r="E259" s="19"/>
-      <c r="F259" s="19"/>
-      <c r="G259" s="19"/>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-    </row>
-    <row r="260" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C260" s="19"/>
-      <c r="D260" s="19"/>
-      <c r="E260" s="19"/>
-      <c r="F260" s="19"/>
-      <c r="G260" s="19"/>
-      <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
-    </row>
-    <row r="261" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C261" s="19"/>
-      <c r="D261" s="19"/>
-      <c r="E261" s="19"/>
-      <c r="F261" s="19"/>
-      <c r="G261" s="19"/>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-    </row>
-    <row r="262" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C262" s="19"/>
-      <c r="D262" s="19"/>
-      <c r="E262" s="19"/>
-      <c r="F262" s="19"/>
-      <c r="G262" s="19"/>
-      <c r="H262" s="19"/>
-      <c r="I262" s="19"/>
-    </row>
-    <row r="263" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C263" s="19"/>
-      <c r="D263" s="19"/>
-      <c r="E263" s="19"/>
-      <c r="F263" s="19"/>
-      <c r="G263" s="19"/>
-      <c r="H263" s="19"/>
-      <c r="I263" s="19"/>
-    </row>
-    <row r="264" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C264" s="19"/>
-      <c r="D264" s="19"/>
-      <c r="E264" s="19"/>
-      <c r="F264" s="19"/>
-      <c r="G264" s="19"/>
-      <c r="H264" s="19"/>
-      <c r="I264" s="19"/>
-    </row>
-    <row r="265" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C265" s="19"/>
-      <c r="D265" s="19"/>
-      <c r="E265" s="19"/>
-      <c r="F265" s="19"/>
-      <c r="G265" s="19"/>
-      <c r="H265" s="19"/>
-      <c r="I265" s="19"/>
-    </row>
-    <row r="266" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C266" s="19"/>
-      <c r="D266" s="19"/>
-      <c r="E266" s="19"/>
-      <c r="F266" s="19"/>
-      <c r="G266" s="19"/>
-      <c r="H266" s="19"/>
-      <c r="I266" s="19"/>
-    </row>
-    <row r="267" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C267" s="19"/>
-      <c r="D267" s="19"/>
-      <c r="E267" s="19"/>
-      <c r="F267" s="19"/>
-      <c r="G267" s="19"/>
-      <c r="H267" s="19"/>
-      <c r="I267" s="19"/>
-    </row>
-    <row r="268" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C268" s="19"/>
-      <c r="D268" s="19"/>
-      <c r="E268" s="19"/>
-      <c r="F268" s="19"/>
-      <c r="G268" s="19"/>
-      <c r="H268" s="19"/>
-      <c r="I268" s="19"/>
-    </row>
-    <row r="269" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C269" s="19"/>
-      <c r="D269" s="19"/>
-      <c r="E269" s="19"/>
-      <c r="F269" s="19"/>
-      <c r="G269" s="19"/>
-      <c r="H269" s="19"/>
-      <c r="I269" s="19"/>
-    </row>
-    <row r="270" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C270" s="19"/>
-      <c r="D270" s="19"/>
-      <c r="E270" s="19"/>
-      <c r="F270" s="19"/>
-      <c r="G270" s="19"/>
-      <c r="H270" s="19"/>
-      <c r="I270" s="19"/>
-    </row>
-    <row r="271" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C271" s="19"/>
-      <c r="D271" s="19"/>
-      <c r="E271" s="19"/>
-      <c r="F271" s="19"/>
-      <c r="G271" s="19"/>
-      <c r="H271" s="19"/>
-      <c r="I271" s="19"/>
-    </row>
-    <row r="272" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C272" s="19"/>
-      <c r="D272" s="19"/>
-      <c r="E272" s="19"/>
-      <c r="F272" s="19"/>
-      <c r="G272" s="19"/>
-      <c r="H272" s="19"/>
-      <c r="I272" s="19"/>
-    </row>
-    <row r="273" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C273" s="19"/>
-      <c r="D273" s="19"/>
-      <c r="E273" s="19"/>
-      <c r="F273" s="19"/>
-      <c r="G273" s="19"/>
-      <c r="H273" s="19"/>
-      <c r="I273" s="19"/>
-    </row>
-    <row r="274" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C274" s="19"/>
-      <c r="D274" s="19"/>
-      <c r="E274" s="19"/>
-      <c r="F274" s="19"/>
-      <c r="G274" s="19"/>
-      <c r="H274" s="19"/>
-      <c r="I274" s="19"/>
-    </row>
-    <row r="275" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C275" s="19"/>
-      <c r="D275" s="19"/>
-      <c r="E275" s="19"/>
-      <c r="F275" s="19"/>
-      <c r="G275" s="19"/>
-      <c r="H275" s="19"/>
-      <c r="I275" s="19"/>
-    </row>
-    <row r="276" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C276" s="19"/>
-      <c r="D276" s="19"/>
-      <c r="E276" s="19"/>
-      <c r="F276" s="19"/>
-      <c r="G276" s="19"/>
-      <c r="H276" s="19"/>
-      <c r="I276" s="19"/>
-    </row>
-    <row r="277" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C277" s="19"/>
-      <c r="D277" s="19"/>
-      <c r="E277" s="19"/>
-      <c r="F277" s="19"/>
-      <c r="G277" s="19"/>
-      <c r="H277" s="19"/>
-      <c r="I277" s="19"/>
-    </row>
-    <row r="278" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C278" s="19"/>
-      <c r="D278" s="19"/>
-      <c r="E278" s="19"/>
-      <c r="F278" s="19"/>
-      <c r="G278" s="19"/>
-      <c r="H278" s="19"/>
-      <c r="I278" s="19"/>
-    </row>
-    <row r="279" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C279" s="19"/>
-      <c r="D279" s="19"/>
-      <c r="E279" s="19"/>
-      <c r="F279" s="19"/>
-      <c r="G279" s="19"/>
-      <c r="H279" s="19"/>
-      <c r="I279" s="19"/>
-    </row>
-    <row r="280" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C280" s="19"/>
-      <c r="D280" s="19"/>
-      <c r="E280" s="19"/>
-      <c r="F280" s="19"/>
-      <c r="G280" s="19"/>
-      <c r="H280" s="19"/>
-      <c r="I280" s="19"/>
-    </row>
-    <row r="281" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C281" s="19"/>
-      <c r="D281" s="19"/>
-      <c r="E281" s="19"/>
-      <c r="F281" s="19"/>
-      <c r="G281" s="19"/>
-      <c r="H281" s="19"/>
-      <c r="I281" s="19"/>
-    </row>
-    <row r="282" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C282" s="19"/>
-      <c r="D282" s="19"/>
-      <c r="E282" s="19"/>
-      <c r="F282" s="19"/>
-      <c r="G282" s="19"/>
-      <c r="H282" s="19"/>
-      <c r="I282" s="19"/>
-    </row>
-    <row r="283" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C283" s="19"/>
-      <c r="D283" s="19"/>
-      <c r="E283" s="19"/>
-      <c r="F283" s="19"/>
-      <c r="G283" s="19"/>
-      <c r="H283" s="19"/>
-      <c r="I283" s="19"/>
-    </row>
-    <row r="284" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C284" s="19"/>
-      <c r="D284" s="19"/>
-      <c r="E284" s="19"/>
-      <c r="F284" s="19"/>
-      <c r="G284" s="19"/>
-      <c r="H284" s="19"/>
-      <c r="I284" s="19"/>
-    </row>
-    <row r="285" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C285" s="19"/>
-      <c r="D285" s="19"/>
-      <c r="E285" s="19"/>
-      <c r="F285" s="19"/>
-      <c r="G285" s="19"/>
-      <c r="H285" s="19"/>
-      <c r="I285" s="19"/>
-    </row>
-    <row r="286" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C286" s="19"/>
-      <c r="D286" s="19"/>
-      <c r="E286" s="19"/>
-      <c r="F286" s="19"/>
-      <c r="G286" s="19"/>
-      <c r="H286" s="19"/>
-      <c r="I286" s="19"/>
-    </row>
-    <row r="287" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C287" s="19"/>
-      <c r="D287" s="19"/>
-      <c r="E287" s="19"/>
-      <c r="F287" s="19"/>
-      <c r="G287" s="19"/>
-      <c r="H287" s="19"/>
-      <c r="I287" s="19"/>
-    </row>
-    <row r="288" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C288" s="19"/>
-      <c r="D288" s="19"/>
-      <c r="E288" s="19"/>
-      <c r="F288" s="19"/>
-      <c r="G288" s="19"/>
-      <c r="H288" s="19"/>
-      <c r="I288" s="19"/>
-    </row>
-    <row r="289" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C289" s="19"/>
-      <c r="D289" s="19"/>
-      <c r="E289" s="19"/>
-      <c r="F289" s="19"/>
-      <c r="G289" s="19"/>
-      <c r="H289" s="19"/>
-      <c r="I289" s="19"/>
-    </row>
-    <row r="290" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C290" s="19"/>
-      <c r="D290" s="19"/>
-      <c r="E290" s="19"/>
-      <c r="F290" s="19"/>
-      <c r="G290" s="19"/>
-      <c r="H290" s="19"/>
-      <c r="I290" s="19"/>
-    </row>
-    <row r="291" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C291" s="19"/>
-      <c r="D291" s="19"/>
-      <c r="E291" s="19"/>
-      <c r="F291" s="19"/>
-      <c r="G291" s="19"/>
-      <c r="H291" s="19"/>
-      <c r="I291" s="19"/>
-    </row>
-    <row r="292" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C292" s="19"/>
-      <c r="D292" s="19"/>
-      <c r="E292" s="19"/>
-      <c r="F292" s="19"/>
-      <c r="G292" s="19"/>
-      <c r="H292" s="19"/>
-      <c r="I292" s="19"/>
-    </row>
-    <row r="293" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C293" s="19"/>
-      <c r="D293" s="19"/>
-      <c r="E293" s="19"/>
-      <c r="F293" s="19"/>
-      <c r="G293" s="19"/>
-      <c r="H293" s="19"/>
-      <c r="I293" s="19"/>
-    </row>
-    <row r="294" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C294" s="19"/>
-      <c r="D294" s="19"/>
-      <c r="E294" s="19"/>
-      <c r="F294" s="19"/>
-      <c r="G294" s="19"/>
-      <c r="H294" s="19"/>
-      <c r="I294" s="19"/>
-    </row>
-    <row r="295" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C295" s="19"/>
-      <c r="D295" s="19"/>
-      <c r="E295" s="19"/>
-      <c r="F295" s="19"/>
-      <c r="G295" s="19"/>
-      <c r="H295" s="19"/>
-      <c r="I295" s="19"/>
-    </row>
-    <row r="296" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C296" s="19"/>
-      <c r="D296" s="19"/>
-      <c r="E296" s="19"/>
-      <c r="F296" s="19"/>
-      <c r="G296" s="19"/>
-      <c r="H296" s="19"/>
-      <c r="I296" s="19"/>
-    </row>
-    <row r="297" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C297" s="19"/>
-      <c r="D297" s="19"/>
-      <c r="E297" s="19"/>
-      <c r="F297" s="19"/>
-      <c r="G297" s="19"/>
-      <c r="H297" s="19"/>
-      <c r="I297" s="19"/>
-    </row>
-    <row r="298" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C298" s="19"/>
-      <c r="D298" s="19"/>
-      <c r="E298" s="19"/>
-      <c r="F298" s="19"/>
-      <c r="G298" s="19"/>
-      <c r="H298" s="19"/>
-      <c r="I298" s="19"/>
-    </row>
-    <row r="299" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C299" s="19"/>
-      <c r="D299" s="19"/>
-      <c r="E299" s="19"/>
-      <c r="F299" s="19"/>
-      <c r="G299" s="19"/>
-      <c r="H299" s="19"/>
-      <c r="I299" s="19"/>
-    </row>
-    <row r="300" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C300" s="19"/>
-      <c r="D300" s="19"/>
-      <c r="E300" s="19"/>
-      <c r="F300" s="19"/>
-      <c r="G300" s="19"/>
-      <c r="H300" s="19"/>
-      <c r="I300" s="19"/>
-    </row>
-    <row r="301" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C301" s="19"/>
-      <c r="D301" s="19"/>
-      <c r="E301" s="19"/>
-      <c r="F301" s="19"/>
-      <c r="G301" s="19"/>
-      <c r="H301" s="19"/>
-      <c r="I301" s="19"/>
-    </row>
-    <row r="302" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C302" s="19"/>
-      <c r="D302" s="19"/>
-      <c r="E302" s="19"/>
-      <c r="F302" s="19"/>
-      <c r="G302" s="19"/>
-      <c r="H302" s="19"/>
-      <c r="I302" s="19"/>
-    </row>
-    <row r="303" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C303" s="19"/>
-      <c r="D303" s="19"/>
-      <c r="E303" s="19"/>
-      <c r="F303" s="19"/>
-      <c r="G303" s="19"/>
-      <c r="H303" s="19"/>
-      <c r="I303" s="19"/>
-    </row>
-    <row r="304" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C304" s="19"/>
-      <c r="D304" s="19"/>
-      <c r="E304" s="19"/>
-      <c r="F304" s="19"/>
-      <c r="G304" s="19"/>
-      <c r="H304" s="19"/>
-      <c r="I304" s="19"/>
-    </row>
-    <row r="305" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C305" s="19"/>
-      <c r="D305" s="19"/>
-      <c r="E305" s="19"/>
-      <c r="F305" s="19"/>
-      <c r="G305" s="19"/>
-      <c r="H305" s="19"/>
-      <c r="I305" s="19"/>
-    </row>
-    <row r="306" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C306" s="19"/>
-      <c r="D306" s="19"/>
-      <c r="E306" s="19"/>
-      <c r="F306" s="19"/>
-      <c r="G306" s="19"/>
-      <c r="H306" s="19"/>
-      <c r="I306" s="19"/>
-    </row>
-    <row r="307" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C307" s="19"/>
-      <c r="D307" s="19"/>
-      <c r="E307" s="19"/>
-      <c r="F307" s="19"/>
-      <c r="G307" s="19"/>
-      <c r="H307" s="19"/>
-      <c r="I307" s="19"/>
-    </row>
-    <row r="308" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C308" s="19"/>
-      <c r="D308" s="19"/>
-      <c r="E308" s="19"/>
-      <c r="F308" s="19"/>
-      <c r="G308" s="19"/>
-      <c r="H308" s="19"/>
-      <c r="I308" s="19"/>
-    </row>
-    <row r="309" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C309" s="19"/>
-      <c r="D309" s="19"/>
-      <c r="E309" s="19"/>
-      <c r="F309" s="19"/>
-      <c r="G309" s="19"/>
-      <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
-    </row>
-    <row r="310" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C310" s="19"/>
-      <c r="D310" s="19"/>
-      <c r="E310" s="19"/>
-      <c r="F310" s="19"/>
-      <c r="G310" s="19"/>
-      <c r="H310" s="19"/>
-      <c r="I310" s="19"/>
-    </row>
-    <row r="311" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C311" s="19"/>
-      <c r="D311" s="19"/>
-      <c r="E311" s="19"/>
-      <c r="F311" s="19"/>
-      <c r="G311" s="19"/>
-      <c r="H311" s="19"/>
-      <c r="I311" s="19"/>
-    </row>
-    <row r="312" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C312" s="19"/>
-      <c r="D312" s="19"/>
-      <c r="E312" s="19"/>
-      <c r="F312" s="19"/>
-      <c r="G312" s="19"/>
-      <c r="H312" s="19"/>
-      <c r="I312" s="19"/>
-    </row>
-    <row r="313" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
